--- a/raw_data/6_plant_heights_data.xlsx
+++ b/raw_data/6_plant_heights_data.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15" count="15">
-  <si>
-    <t>week_7</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14" count="14">
   <si>
     <t>ec</t>
   </si>
@@ -112,11 +109,7 @@
       <protection locked="1" hidden="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
+  <cellXfs count="1">
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
       <protection locked="1" hidden="0"/>
@@ -130,17 +123,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:K161"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView topLeftCell="A111" workbookViewId="0" tabSelected="1">
+      <selection activeCell="Q130" sqref="Q130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="4" style="1" width="9.142307692307693"/>
-    <col min="5" max="11" style="1" width="9.856550480769231" bestFit="1" customWidth="1"/>
-    <col min="12" max="256" style="1" width="9.142307692307693"/>
+    <col min="1" max="4" style="0" width="9.142307692307693"/>
+    <col min="5" max="11" style="0" width="9.856550480769231" bestFit="1" customWidth="1"/>
+    <col min="12" max="256" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -164,38 +157,26 @@
           <t>treatment</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>week_1</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>week_2</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>week_3</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>week_4</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>week_5</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>week_6</t>
-        </is>
-      </c>
-      <c r="K1" t="s">
-        <v>0</v>
+      <c r="E1">
+        <v>20150831</v>
+      </c>
+      <c r="F1">
+        <v>20150919</v>
+      </c>
+      <c r="G1">
+        <v>20151004</v>
+      </c>
+      <c r="H1">
+        <v>20151017</v>
+      </c>
+      <c r="I1">
+        <v>20151031</v>
+      </c>
+      <c r="J1">
+        <v>20151115</v>
+      </c>
+      <c r="K1">
+        <v>20151124</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -203,13 +184,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
       </c>
       <c r="E2">
         <v>17</v>
@@ -238,13 +219,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
       </c>
       <c r="E3">
         <v>25</v>
@@ -273,13 +254,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
       </c>
       <c r="E4">
         <v>14</v>
@@ -308,13 +289,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
       </c>
       <c r="E5">
         <v>16</v>
@@ -343,13 +324,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>20.5</v>
@@ -378,13 +359,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>21</v>
@@ -413,13 +394,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>24</v>
@@ -448,13 +429,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>25.5</v>
@@ -483,13 +464,13 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <v>20</v>
@@ -518,13 +499,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11">
         <v>20</v>
@@ -553,13 +534,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12">
         <v>23</v>
@@ -588,13 +569,13 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13">
         <v>24.5</v>
@@ -623,13 +604,13 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14">
         <v>24.5</v>
@@ -658,13 +639,13 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15">
         <v>13.5</v>
@@ -693,13 +674,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16">
         <v>17</v>
@@ -728,13 +709,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E17">
         <v>22</v>
@@ -763,13 +744,13 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
         <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>3</v>
       </c>
       <c r="E18">
         <v>29</v>
@@ -798,13 +779,13 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
         <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>3</v>
       </c>
       <c r="E19">
         <v>26</v>
@@ -833,13 +814,13 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
         <v>2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>3</v>
       </c>
       <c r="E20">
         <v>32</v>
@@ -868,13 +849,13 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
         <v>2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>3</v>
       </c>
       <c r="E21">
         <v>19</v>
@@ -903,13 +884,13 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E22">
         <v>24</v>
@@ -938,13 +919,13 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E23">
         <v>25</v>
@@ -973,13 +954,13 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E24">
         <v>38</v>
@@ -1008,13 +989,13 @@
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E25">
         <v>32</v>
@@ -1043,13 +1024,13 @@
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E26">
         <v>32</v>
@@ -1078,13 +1059,13 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E27">
         <v>28</v>
@@ -1113,13 +1094,13 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E28">
         <v>26</v>
@@ -1148,13 +1129,13 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E29">
         <v>27</v>
@@ -1183,13 +1164,13 @@
         <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E30">
         <v>28</v>
@@ -1218,13 +1199,13 @@
         <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E31">
         <v>31</v>
@@ -1253,13 +1234,13 @@
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E32">
         <v>29</v>
@@ -1288,13 +1269,13 @@
         <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E33">
         <v>27</v>
@@ -1323,13 +1304,13 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E34">
         <v>9.5</v>
@@ -1358,13 +1339,13 @@
         <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E35">
         <v>7</v>
@@ -1393,13 +1374,13 @@
         <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E36">
         <v>8.5</v>
@@ -1428,13 +1409,13 @@
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E37">
         <v>13</v>
@@ -1463,13 +1444,13 @@
         <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E38">
         <v>9</v>
@@ -1498,13 +1479,13 @@
         <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E39">
         <v>8</v>
@@ -1533,13 +1514,13 @@
         <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E40">
         <v>10</v>
@@ -1568,13 +1549,13 @@
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E41">
         <v>11.5</v>
@@ -1603,13 +1584,13 @@
         <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E42">
         <v>10</v>
@@ -1638,13 +1619,13 @@
         <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E43">
         <v>7.5</v>
@@ -1673,13 +1654,13 @@
         <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E44">
         <v>11</v>
@@ -1708,13 +1689,13 @@
         <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E45">
         <v>10</v>
@@ -1743,13 +1724,13 @@
         <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E46">
         <v>11</v>
@@ -1778,13 +1759,13 @@
         <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E47">
         <v>6.5</v>
@@ -1813,13 +1794,13 @@
         <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E48">
         <v>8.5</v>
@@ -1848,13 +1829,13 @@
         <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E49">
         <v>11</v>
@@ -1883,13 +1864,13 @@
         <v>65</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E50">
         <v>16</v>
@@ -1918,13 +1899,13 @@
         <v>66</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E51">
         <v>20</v>
@@ -1953,13 +1934,13 @@
         <v>67</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E52">
         <v>19.5</v>
@@ -1988,13 +1969,13 @@
         <v>68</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E53">
         <v>23</v>
@@ -2023,13 +2004,13 @@
         <v>69</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E54">
         <v>16.5</v>
@@ -2058,13 +2039,13 @@
         <v>70</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E55">
         <v>12.5</v>
@@ -2093,13 +2074,13 @@
         <v>71</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E56">
         <v>18</v>
@@ -2128,13 +2109,13 @@
         <v>72</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E57">
         <v>14</v>
@@ -2163,13 +2144,13 @@
         <v>73</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E58">
         <v>14</v>
@@ -2198,13 +2179,13 @@
         <v>74</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E59">
         <v>17</v>
@@ -2233,13 +2214,13 @@
         <v>75</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E60">
         <v>16</v>
@@ -2268,13 +2249,13 @@
         <v>76</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D61" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E61">
         <v>20.5</v>
@@ -2303,13 +2284,13 @@
         <v>77</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E62">
         <v>7</v>
@@ -2338,13 +2319,13 @@
         <v>78</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E63">
         <v>19</v>
@@ -2373,13 +2354,13 @@
         <v>79</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E64">
         <v>15</v>
@@ -2408,13 +2389,13 @@
         <v>80</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E65">
         <v>15.5</v>
@@ -2443,13 +2424,13 @@
         <v>85</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E66">
         <v>9</v>
@@ -2478,13 +2459,13 @@
         <v>86</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E67">
         <v>10</v>
@@ -2513,13 +2494,13 @@
         <v>87</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E68">
         <v>8</v>
@@ -2548,13 +2529,13 @@
         <v>88</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E69">
         <v>9.5</v>
@@ -2583,13 +2564,13 @@
         <v>89</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E70">
         <v>8.5</v>
@@ -2618,13 +2599,13 @@
         <v>90</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E71">
         <v>10.5</v>
@@ -2653,13 +2634,13 @@
         <v>91</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E72">
         <v>12</v>
@@ -2688,13 +2669,13 @@
         <v>92</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D73" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E73">
         <v>13</v>
@@ -2723,13 +2704,13 @@
         <v>93</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E74">
         <v>11.5</v>
@@ -2758,13 +2739,13 @@
         <v>94</v>
       </c>
       <c r="B75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D75" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E75">
         <v>8</v>
@@ -2793,13 +2774,13 @@
         <v>95</v>
       </c>
       <c r="B76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E76">
         <v>9.5</v>
@@ -2828,13 +2809,13 @@
         <v>96</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D77" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E77">
         <v>12</v>
@@ -2863,13 +2844,13 @@
         <v>97</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E78">
         <v>10.5</v>
@@ -2898,13 +2879,13 @@
         <v>98</v>
       </c>
       <c r="B79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E79">
         <v>7.5</v>
@@ -2933,13 +2914,13 @@
         <v>99</v>
       </c>
       <c r="B80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D80" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E80">
         <v>7.5</v>
@@ -2968,13 +2949,13 @@
         <v>100</v>
       </c>
       <c r="B81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E81">
         <v>9</v>
@@ -3003,13 +2984,13 @@
         <v>105</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C82" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
         <v>2</v>
-      </c>
-      <c r="D82" t="s">
-        <v>3</v>
       </c>
       <c r="E82">
         <v>12.5</v>
@@ -3038,13 +3019,13 @@
         <v>106</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C83" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
         <v>2</v>
-      </c>
-      <c r="D83" t="s">
-        <v>3</v>
       </c>
       <c r="E83">
         <v>13</v>
@@ -3073,13 +3054,13 @@
         <v>107</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C84" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
         <v>2</v>
-      </c>
-      <c r="D84" t="s">
-        <v>3</v>
       </c>
       <c r="E84">
         <v>20</v>
@@ -3108,13 +3089,13 @@
         <v>108</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C85" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
         <v>2</v>
-      </c>
-      <c r="D85" t="s">
-        <v>3</v>
       </c>
       <c r="E85">
         <v>19</v>
@@ -3143,13 +3124,13 @@
         <v>109</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E86">
         <v>17.5</v>
@@ -3178,13 +3159,13 @@
         <v>110</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E87">
         <v>17.5</v>
@@ -3213,13 +3194,13 @@
         <v>111</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C88" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E88">
         <v>16.5</v>
@@ -3248,13 +3229,13 @@
         <v>112</v>
       </c>
       <c r="B89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C89" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E89">
         <v>14.5</v>
@@ -3283,13 +3264,13 @@
         <v>113</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C90" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E90">
         <v>15.5</v>
@@ -3318,13 +3299,13 @@
         <v>114</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C91" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E91">
         <v>16</v>
@@ -3353,13 +3334,13 @@
         <v>115</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C92" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E92">
         <v>15.5</v>
@@ -3388,13 +3369,13 @@
         <v>116</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C93" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D93" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93">
         <v>10.5</v>
@@ -3423,13 +3404,13 @@
         <v>117</v>
       </c>
       <c r="B94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E94">
         <v>12.5</v>
@@ -3458,13 +3439,13 @@
         <v>118</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C95" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E95">
         <v>17.5</v>
@@ -3493,13 +3474,13 @@
         <v>119</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E96">
         <v>13.5</v>
@@ -3528,13 +3509,13 @@
         <v>120</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C97" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E97">
         <v>21</v>
@@ -3563,13 +3544,13 @@
         <v>125</v>
       </c>
       <c r="B98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
         <v>2</v>
-      </c>
-      <c r="D98" t="s">
-        <v>3</v>
       </c>
       <c r="E98">
         <v>9.5</v>
@@ -3598,13 +3579,13 @@
         <v>126</v>
       </c>
       <c r="B99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C99" t="s">
+        <v>1</v>
+      </c>
+      <c r="D99" t="s">
         <v>2</v>
-      </c>
-      <c r="D99" t="s">
-        <v>3</v>
       </c>
       <c r="E99">
         <v>11.5</v>
@@ -3633,13 +3614,13 @@
         <v>127</v>
       </c>
       <c r="B100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C100" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
         <v>2</v>
-      </c>
-      <c r="D100" t="s">
-        <v>3</v>
       </c>
       <c r="E100">
         <v>11</v>
@@ -3668,13 +3649,13 @@
         <v>128</v>
       </c>
       <c r="B101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C101" t="s">
+        <v>1</v>
+      </c>
+      <c r="D101" t="s">
         <v>2</v>
-      </c>
-      <c r="D101" t="s">
-        <v>3</v>
       </c>
       <c r="E101">
         <v>11</v>
@@ -3703,13 +3684,13 @@
         <v>129</v>
       </c>
       <c r="B102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C102" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E102">
         <v>11</v>
@@ -3738,13 +3719,13 @@
         <v>130</v>
       </c>
       <c r="B103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D103" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E103">
         <v>8.5</v>
@@ -3773,13 +3754,13 @@
         <v>131</v>
       </c>
       <c r="B104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C104" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D104" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E104">
         <v>10</v>
@@ -3808,13 +3789,13 @@
         <v>132</v>
       </c>
       <c r="B105" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C105" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D105" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E105">
         <v>12.5</v>
@@ -3843,13 +3824,13 @@
         <v>133</v>
       </c>
       <c r="B106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D106" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E106">
         <v>10</v>
@@ -3878,13 +3859,13 @@
         <v>134</v>
       </c>
       <c r="B107" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C107" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E107">
         <v>7</v>
@@ -3913,13 +3894,13 @@
         <v>135</v>
       </c>
       <c r="B108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C108" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D108" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E108">
         <v>9</v>
@@ -3948,13 +3929,13 @@
         <v>136</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C109" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D109" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E109">
         <v>9.5</v>
@@ -3983,13 +3964,13 @@
         <v>137</v>
       </c>
       <c r="B110" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C110" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D110" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E110">
         <v>10.5</v>
@@ -4018,13 +3999,13 @@
         <v>138</v>
       </c>
       <c r="B111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C111" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D111" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E111">
         <v>8.5</v>
@@ -4053,13 +4034,13 @@
         <v>139</v>
       </c>
       <c r="B112" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C112" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D112" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E112">
         <v>11</v>
@@ -4088,13 +4069,13 @@
         <v>140</v>
       </c>
       <c r="B113" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C113" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D113" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E113">
         <v>9.5</v>
@@ -4123,13 +4104,13 @@
         <v>145</v>
       </c>
       <c r="B114" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D114" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E114">
         <v>5</v>
@@ -4158,13 +4139,13 @@
         <v>146</v>
       </c>
       <c r="B115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D115" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E115">
         <v>6</v>
@@ -4193,13 +4174,13 @@
         <v>147</v>
       </c>
       <c r="B116" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D116" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E116">
         <v>5</v>
@@ -4228,13 +4209,13 @@
         <v>148</v>
       </c>
       <c r="B117" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D117" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E117">
         <v>3</v>
@@ -4263,13 +4244,13 @@
         <v>149</v>
       </c>
       <c r="B118" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D118" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E118">
         <v>5</v>
@@ -4298,13 +4279,13 @@
         <v>150</v>
       </c>
       <c r="B119" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D119" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E119">
         <v>6</v>
@@ -4333,13 +4314,13 @@
         <v>151</v>
       </c>
       <c r="B120" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D120" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E120">
         <v>4.5</v>
@@ -4368,13 +4349,13 @@
         <v>152</v>
       </c>
       <c r="B121" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D121" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E121">
         <v>6</v>
@@ -4403,13 +4384,13 @@
         <v>153</v>
       </c>
       <c r="B122" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D122" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E122">
         <v>7.5</v>
@@ -4438,13 +4419,13 @@
         <v>154</v>
       </c>
       <c r="B123" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D123" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E123">
         <v>6</v>
@@ -4473,13 +4454,13 @@
         <v>155</v>
       </c>
       <c r="B124" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D124" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E124">
         <v>6</v>
@@ -4508,13 +4489,13 @@
         <v>156</v>
       </c>
       <c r="B125" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D125" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E125">
         <v>4.5</v>
@@ -4543,13 +4524,13 @@
         <v>157</v>
       </c>
       <c r="B126" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D126" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E126">
         <v>4.5</v>
@@ -4578,13 +4559,13 @@
         <v>158</v>
       </c>
       <c r="B127" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D127" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E127">
         <v>5</v>
@@ -4613,13 +4594,13 @@
         <v>159</v>
       </c>
       <c r="B128" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D128" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E128">
         <v>4.5</v>
@@ -4648,13 +4629,13 @@
         <v>160</v>
       </c>
       <c r="B129" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D129" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E129">
         <v>5</v>
